--- a/GettingStartedDocs_examplesTable.xlsx
+++ b/GettingStartedDocs_examplesTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HGeithner\Documents\Projects\Cool Aid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HGeithner\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEB6FE8-75DF-451D-A596-22C90FF5CAF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328465FE-1D2F-4314-8B0B-1287DFD075F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{41AC758A-6247-4A1F-8F12-EAA9973BF791}"/>
   </bookViews>
@@ -72,21 +72,12 @@
     <t>MyAudiogramAlgorithm</t>
   </si>
   <si>
-    <t>ToneOutputWithSteppedAmplitude</t>
-  </si>
-  <si>
     <t>RenameTympanBT</t>
   </si>
   <si>
     <t>SDWavPlayer</t>
   </si>
   <si>
-    <t>SDWriting_01_StereoAudio</t>
-  </si>
-  <si>
-    <t>SDWriting_02_RemoteControlled</t>
-  </si>
-  <si>
     <t>SoundLevelMeter</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
     <t>Provides a blank canvas for adding your own floating-point audio processing</t>
   </si>
   <si>
-    <t>Plays a single tone followed by silence. Repeats the tone+silence at increasing amplitude. The last tone should definitely distort.  The 2nd-to-last tone should be on the edge of distorting. WARNING: DO NOT LISTEN TO THIS WITH HEADPHONES ON</t>
-  </si>
-  <si>
     <t>Change the name of the Bluetooth module on the Tympan to make it easier for us fellow humans to recognize when connecting via PC, phone, or other device</t>
   </si>
   <si>
@@ -217,6 +205,18 @@
   </si>
   <si>
     <t>WDRC_8BandFIR_Full</t>
+  </si>
+  <si>
+    <t>OutputTone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plays a single tone followed by silence. Repeats the tone+silence at increasing amplitude. </t>
+  </si>
+  <si>
+    <t>SDWriter</t>
+  </si>
+  <si>
+    <t>SDWriter_wApp</t>
   </si>
 </sst>
 </file>
@@ -462,6 +462,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,18 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED3B2E8-E748-4900-A938-CF5C02885B2C}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -830,264 +830,264 @@
       <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="D4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="2:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="2:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="D7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="2:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="2:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="D11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="2:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="D12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
@@ -1100,112 +1100,112 @@
     </row>
     <row r="25" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
+        <v>18</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="2:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+        <v>21</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="2:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+        <v>56</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="2:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
@@ -1235,20 +1235,14 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
@@ -1258,14 +1252,20 @@
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
